--- a/rider/monthly/2017_5.xlsx
+++ b/rider/monthly/2017_5.xlsx
@@ -333,94 +333,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>221</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>247</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>233</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>262</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>263</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>273</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>203</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>237</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>142</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>101</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>192</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -547,94 +547,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>225.24</c:v>
+                  <c:v>227.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>215.19</c:v>
+                  <c:v>220.11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>222.41</c:v>
+                  <c:v>213.93</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>235.19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>241.11</c:v>
+                  <c:v>241.41</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>111.61</c:v>
+                  <c:v>112.11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.92</c:v>
+                  <c:v>90.65000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>226.27</c:v>
+                  <c:v>226.12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>215</c:v>
+                  <c:v>220.96</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>223.57</c:v>
+                  <c:v>213.68</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>235.67</c:v>
+                  <c:v>234.56</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>239.36</c:v>
+                  <c:v>239.61</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>111.24</c:v>
+                  <c:v>111.45</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>91.41</c:v>
+                  <c:v>91.19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>226.52</c:v>
+                  <c:v>226.96</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>214.76</c:v>
+                  <c:v>219.66</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>224.9</c:v>
+                  <c:v>214.69</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>236.64</c:v>
+                  <c:v>234.89</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>238.28</c:v>
+                  <c:v>238.97</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>112.07</c:v>
+                  <c:v>112.87</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>90.54000000000001</c:v>
+                  <c:v>90.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>225.32</c:v>
+                  <c:v>226.04</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>213.77</c:v>
+                  <c:v>218.83</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>226.5</c:v>
+                  <c:v>216.27</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>235.48</c:v>
+                  <c:v>234.86</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>238.23</c:v>
+                  <c:v>238.6</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>113.03</c:v>
+                  <c:v>114.06</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>90.90000000000001</c:v>
+                  <c:v>91.06999999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>213.71</c:v>
+                  <c:v>218.61</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>225.39</c:v>
+                  <c:v>215.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1293,10 +1293,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="D2">
-        <v>225.24</v>
+        <v>227.68</v>
       </c>
       <c r="E2">
         <v>117.72</v>
@@ -1310,10 +1310,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>203</v>
+        <v>269</v>
       </c>
       <c r="D3">
-        <v>215.19</v>
+        <v>220.11</v>
       </c>
       <c r="E3">
         <v>117.88</v>
@@ -1327,10 +1327,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="D4">
-        <v>222.41</v>
+        <v>213.93</v>
       </c>
       <c r="E4">
         <v>118.04</v>
@@ -1344,7 +1344,7 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="D5">
         <v>235.19</v>
@@ -1361,10 +1361,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="D6">
-        <v>241.11</v>
+        <v>241.41</v>
       </c>
       <c r="E6">
         <v>118.37</v>
@@ -1378,10 +1378,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D7">
-        <v>111.61</v>
+        <v>112.11</v>
       </c>
       <c r="E7">
         <v>118.53</v>
@@ -1395,10 +1395,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D8">
-        <v>90.92</v>
+        <v>90.65000000000001</v>
       </c>
       <c r="E8">
         <v>118.69</v>
@@ -1412,10 +1412,10 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>252</v>
+        <v>187</v>
       </c>
       <c r="D9">
-        <v>226.27</v>
+        <v>226.12</v>
       </c>
       <c r="E9">
         <v>118.85</v>
@@ -1429,10 +1429,10 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="D10">
-        <v>215</v>
+        <v>220.96</v>
       </c>
       <c r="E10">
         <v>119.01</v>
@@ -1446,10 +1446,10 @@
         <v>21</v>
       </c>
       <c r="C11">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="D11">
-        <v>223.57</v>
+        <v>213.68</v>
       </c>
       <c r="E11">
         <v>119.17</v>
@@ -1463,10 +1463,10 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="D12">
-        <v>235.67</v>
+        <v>234.56</v>
       </c>
       <c r="E12">
         <v>119.34</v>
@@ -1480,10 +1480,10 @@
         <v>23</v>
       </c>
       <c r="C13">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D13">
-        <v>239.36</v>
+        <v>239.61</v>
       </c>
       <c r="E13">
         <v>119.5</v>
@@ -1497,10 +1497,10 @@
         <v>24</v>
       </c>
       <c r="C14">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D14">
-        <v>111.24</v>
+        <v>111.45</v>
       </c>
       <c r="E14">
         <v>119.66</v>
@@ -1514,10 +1514,10 @@
         <v>25</v>
       </c>
       <c r="C15">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D15">
-        <v>91.41</v>
+        <v>91.19</v>
       </c>
       <c r="E15">
         <v>119.82</v>
@@ -1531,10 +1531,10 @@
         <v>26</v>
       </c>
       <c r="C16">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="D16">
-        <v>226.52</v>
+        <v>226.96</v>
       </c>
       <c r="E16">
         <v>119.98</v>
@@ -1548,10 +1548,10 @@
         <v>27</v>
       </c>
       <c r="C17">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="D17">
-        <v>214.76</v>
+        <v>219.66</v>
       </c>
       <c r="E17">
         <v>120.14</v>
@@ -1565,10 +1565,10 @@
         <v>28</v>
       </c>
       <c r="C18">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="D18">
-        <v>224.9</v>
+        <v>214.69</v>
       </c>
       <c r="E18">
         <v>120.3</v>
@@ -1582,10 +1582,10 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="D19">
-        <v>236.64</v>
+        <v>234.89</v>
       </c>
       <c r="E19">
         <v>120.47</v>
@@ -1599,10 +1599,10 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="D20">
-        <v>238.28</v>
+        <v>238.97</v>
       </c>
       <c r="E20">
         <v>120.63</v>
@@ -1616,10 +1616,10 @@
         <v>31</v>
       </c>
       <c r="C21">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="D21">
-        <v>112.07</v>
+        <v>112.87</v>
       </c>
       <c r="E21">
         <v>120.79</v>
@@ -1633,10 +1633,10 @@
         <v>32</v>
       </c>
       <c r="C22">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D22">
-        <v>90.54000000000001</v>
+        <v>90.5</v>
       </c>
       <c r="E22">
         <v>120.95</v>
@@ -1650,10 +1650,10 @@
         <v>33</v>
       </c>
       <c r="C23">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D23">
-        <v>225.32</v>
+        <v>226.04</v>
       </c>
       <c r="E23">
         <v>121.11</v>
@@ -1667,10 +1667,10 @@
         <v>34</v>
       </c>
       <c r="C24">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D24">
-        <v>213.77</v>
+        <v>218.83</v>
       </c>
       <c r="E24">
         <v>121.27</v>
@@ -1684,10 +1684,10 @@
         <v>35</v>
       </c>
       <c r="C25">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D25">
-        <v>226.5</v>
+        <v>216.27</v>
       </c>
       <c r="E25">
         <v>121.43</v>
@@ -1701,10 +1701,10 @@
         <v>36</v>
       </c>
       <c r="C26">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="D26">
-        <v>235.48</v>
+        <v>234.86</v>
       </c>
       <c r="E26">
         <v>121.6</v>
@@ -1718,10 +1718,10 @@
         <v>37</v>
       </c>
       <c r="C27">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D27">
-        <v>238.23</v>
+        <v>238.6</v>
       </c>
       <c r="E27">
         <v>121.76</v>
@@ -1735,10 +1735,10 @@
         <v>38</v>
       </c>
       <c r="C28">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D28">
-        <v>113.03</v>
+        <v>114.06</v>
       </c>
       <c r="E28">
         <v>121.92</v>
@@ -1752,10 +1752,10 @@
         <v>39</v>
       </c>
       <c r="C29">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D29">
-        <v>90.90000000000001</v>
+        <v>91.06999999999999</v>
       </c>
       <c r="E29">
         <v>122.08</v>
@@ -1772,7 +1772,7 @@
         <v>212</v>
       </c>
       <c r="D30">
-        <v>213.71</v>
+        <v>218.61</v>
       </c>
       <c r="E30">
         <v>122.4</v>
@@ -1786,10 +1786,10 @@
         <v>41</v>
       </c>
       <c r="C31">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="D31">
-        <v>225.39</v>
+        <v>215.03</v>
       </c>
       <c r="E31">
         <v>122.57</v>
